--- a/Code/Results/Cases/Case_0_206/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_206/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.419916800493268</v>
+        <v>4.917497143191863</v>
       </c>
       <c r="D2">
-        <v>4.780316404369163</v>
+        <v>8.37953447089845</v>
       </c>
       <c r="E2">
-        <v>9.509247275504224</v>
+        <v>13.1715048820428</v>
       </c>
       <c r="F2">
-        <v>41.26537917310193</v>
+        <v>38.31587132213537</v>
       </c>
       <c r="G2">
-        <v>2.005860463104122</v>
+        <v>3.637461528759324</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.625206055635732</v>
+        <v>9.970737365885174</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
-        <v>30.84235715246495</v>
+        <v>29.15539173534993</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.882246722338013</v>
+        <v>4.750038287576572</v>
       </c>
       <c r="D3">
-        <v>4.767941492040242</v>
+        <v>8.394650609564671</v>
       </c>
       <c r="E3">
-        <v>9.179329946718342</v>
+        <v>13.15978120347579</v>
       </c>
       <c r="F3">
-        <v>38.73022454327981</v>
+        <v>37.81025459191146</v>
       </c>
       <c r="G3">
-        <v>2.018023020747491</v>
+        <v>3.641781056497854</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.454006984632593</v>
+        <v>9.975187776357476</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
-        <v>28.97036605393613</v>
+        <v>28.79417684634628</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.536407703214091</v>
+        <v>4.64591576783808</v>
       </c>
       <c r="D4">
-        <v>4.762487790653436</v>
+        <v>8.404845278276248</v>
       </c>
       <c r="E4">
-        <v>8.980024321066473</v>
+        <v>13.15545742062762</v>
       </c>
       <c r="F4">
-        <v>37.13487151948777</v>
+        <v>37.50866947976713</v>
       </c>
       <c r="G4">
-        <v>2.025640147927716</v>
+        <v>3.644570570457484</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.352636191121139</v>
+        <v>9.979858037231841</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
-        <v>27.79376843338402</v>
+        <v>28.57929408398432</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.391438969529525</v>
+        <v>4.603233074408617</v>
       </c>
       <c r="D5">
-        <v>4.76078671082342</v>
+        <v>8.40922952907969</v>
       </c>
       <c r="E5">
-        <v>8.899673335319951</v>
+        <v>13.15441859798503</v>
       </c>
       <c r="F5">
-        <v>36.47533572515513</v>
+        <v>37.3881454899031</v>
       </c>
       <c r="G5">
-        <v>2.028785446003738</v>
+        <v>3.645741988542309</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.312265788661438</v>
+        <v>9.982247850571035</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>27.30771434255108</v>
+        <v>28.49356298653657</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.367120806816617</v>
+        <v>4.596132744288094</v>
       </c>
       <c r="D6">
-        <v>4.760535230614422</v>
+        <v>8.409971417741623</v>
       </c>
       <c r="E6">
-        <v>8.88638506600938</v>
+        <v>13.1542897787859</v>
       </c>
       <c r="F6">
-        <v>36.36526460933418</v>
+        <v>37.36828010956902</v>
       </c>
       <c r="G6">
-        <v>2.029310314623333</v>
+        <v>3.645938599671039</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.305618985443131</v>
+        <v>9.982674048260407</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>27.22661795448158</v>
+        <v>28.47944106643438</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.534469058205537</v>
+        <v>4.645341050300152</v>
       </c>
       <c r="D7">
-        <v>4.762462761330061</v>
+        <v>8.404903474949895</v>
       </c>
       <c r="E7">
-        <v>8.978937097674775</v>
+        <v>13.15544048259847</v>
       </c>
       <c r="F7">
-        <v>37.12601435316883</v>
+        <v>37.50703424964986</v>
       </c>
       <c r="G7">
-        <v>2.025682394792774</v>
+        <v>3.644586228050326</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.352087941853293</v>
+        <v>9.979888297599556</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
-        <v>27.78723955156482</v>
+        <v>28.57813032523592</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.237733906893245</v>
+        <v>4.860071148188108</v>
       </c>
       <c r="D8">
-        <v>4.775593320832193</v>
+        <v>8.384557071697326</v>
       </c>
       <c r="E8">
-        <v>9.394838744755399</v>
+        <v>13.16686625684063</v>
       </c>
       <c r="F8">
-        <v>40.39944576938566</v>
+        <v>38.13978326231944</v>
       </c>
       <c r="G8">
-        <v>2.010025485171373</v>
+        <v>3.638922489429729</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.565396303841653</v>
+        <v>9.971869385334447</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
-        <v>30.20265043434653</v>
+        <v>29.02947253667056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.496502102439742</v>
+        <v>5.267797834203673</v>
       </c>
       <c r="D9">
-        <v>4.819228356888976</v>
+        <v>8.351896488627711</v>
       </c>
       <c r="E9">
-        <v>10.23497602653491</v>
+        <v>13.21204874189638</v>
       </c>
       <c r="F9">
-        <v>46.50576077762678</v>
+        <v>39.44433865126174</v>
       </c>
       <c r="G9">
-        <v>1.980317961362469</v>
+        <v>3.628898923999232</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.013805013951013</v>
+        <v>9.971540063062042</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>34.8653170944557</v>
+        <v>29.96479493695725</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.35465555820589</v>
+        <v>5.555577424452109</v>
       </c>
       <c r="D10">
-        <v>4.863519940609516</v>
+        <v>8.332303123471856</v>
       </c>
       <c r="E10">
-        <v>10.86675273434243</v>
+        <v>13.25905958193109</v>
       </c>
       <c r="F10">
-        <v>51.02536784613685</v>
+        <v>40.43258108286911</v>
       </c>
       <c r="G10">
-        <v>1.958797704651079</v>
+        <v>3.622185812989481</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.362737833964044</v>
+        <v>9.980703773332708</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>38.38151826727245</v>
+        <v>30.67632919590986</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.732307392773558</v>
+        <v>5.683289480366905</v>
       </c>
       <c r="D11">
-        <v>4.886662326486467</v>
+        <v>8.324343274162553</v>
       </c>
       <c r="E11">
-        <v>11.15770093574515</v>
+        <v>13.28342094219014</v>
       </c>
       <c r="F11">
-        <v>53.04626532141467</v>
+        <v>40.88667420338377</v>
       </c>
       <c r="G11">
-        <v>1.948993791742205</v>
+        <v>3.619271314870455</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.526181146053604</v>
+        <v>9.986915426135772</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>39.93936365335512</v>
+        <v>31.00394998365633</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.873652498148722</v>
+        <v>5.731144146241925</v>
       </c>
       <c r="D12">
-        <v>4.895888649646724</v>
+        <v>8.321465978278923</v>
       </c>
       <c r="E12">
-        <v>11.26845561196102</v>
+        <v>13.29307089710891</v>
       </c>
       <c r="F12">
-        <v>53.80538298888737</v>
+        <v>41.05911770167053</v>
       </c>
       <c r="G12">
-        <v>1.945271275990377</v>
+        <v>3.618187556162777</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.588810223440325</v>
+        <v>9.989561056539859</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>40.52395228489063</v>
+        <v>31.12846399086969</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.843282361506787</v>
+        <v>5.720861031978093</v>
       </c>
       <c r="D13">
-        <v>4.893880449221885</v>
+        <v>8.322079568072784</v>
       </c>
       <c r="E13">
-        <v>11.2445753952408</v>
+        <v>13.29097376639992</v>
       </c>
       <c r="F13">
-        <v>53.64215257220663</v>
+        <v>41.02195977649676</v>
       </c>
       <c r="G13">
-        <v>1.946073571084319</v>
+        <v>3.618420080178632</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.575288007499377</v>
+        <v>9.988978231202863</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>40.39827584306316</v>
+        <v>31.10162943268654</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.743968234584118</v>
+        <v>5.687236925558879</v>
       </c>
       <c r="D14">
-        <v>4.887411905176538</v>
+        <v>8.32410381398088</v>
       </c>
       <c r="E14">
-        <v>11.16680066995423</v>
+        <v>13.28420635488916</v>
       </c>
       <c r="F14">
-        <v>53.10883654391905</v>
+        <v>40.90085237831989</v>
       </c>
       <c r="G14">
-        <v>1.94868778842881</v>
+        <v>3.619181755378346</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.531318503264218</v>
+        <v>9.987127206179927</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>39.98756071898966</v>
+        <v>31.01418544175401</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.682924200306442</v>
+        <v>5.666573847298719</v>
       </c>
       <c r="D15">
-        <v>4.883511041248127</v>
+        <v>8.325361550290696</v>
       </c>
       <c r="E15">
-        <v>11.11923942445179</v>
+        <v>13.28011634602458</v>
       </c>
       <c r="F15">
-        <v>52.78139024121674</v>
+        <v>40.82672936358039</v>
       </c>
       <c r="G15">
-        <v>1.950287513647288</v>
+        <v>3.619650890739402</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.504483944348005</v>
+        <v>9.986031596312477</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>39.73531325442521</v>
+        <v>30.96067881572731</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.329732729216216</v>
+        <v>5.547162608248234</v>
       </c>
       <c r="D16">
-        <v>4.862070436341748</v>
+        <v>8.332842487610495</v>
       </c>
       <c r="E16">
-        <v>10.8478150885749</v>
+        <v>13.25752713912069</v>
       </c>
       <c r="F16">
-        <v>50.89238984834956</v>
+        <v>40.402982238279</v>
       </c>
       <c r="G16">
-        <v>1.959437476975279</v>
+        <v>3.62237907425135</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.35215584682938</v>
+        <v>9.980338910971588</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>38.27892393056676</v>
+        <v>30.65498779838054</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.10991280152035</v>
+        <v>5.473052887979496</v>
       </c>
       <c r="D17">
-        <v>4.849705756379414</v>
+        <v>8.337675848305945</v>
       </c>
       <c r="E17">
-        <v>10.68225234194597</v>
+        <v>13.24442954544489</v>
       </c>
       <c r="F17">
-        <v>49.72170052573939</v>
+        <v>40.14407159247448</v>
       </c>
       <c r="G17">
-        <v>1.96504177612612</v>
+        <v>3.624088314602401</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.259950308084898</v>
+        <v>9.977369701394315</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>37.37522662739563</v>
+        <v>30.46838297396374</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.982269051776083</v>
+        <v>5.430128156078403</v>
       </c>
       <c r="D18">
-        <v>4.842873556241534</v>
+        <v>8.340545605306687</v>
       </c>
       <c r="E18">
-        <v>10.58735313429315</v>
+        <v>13.23717647786342</v>
       </c>
       <c r="F18">
-        <v>49.04375770153572</v>
+        <v>39.99558975782951</v>
       </c>
       <c r="G18">
-        <v>1.968264423755969</v>
+        <v>3.625084546993187</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.207355039624868</v>
+        <v>9.975854225933524</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>36.85147230653768</v>
+        <v>30.36143056204226</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.938838708019492</v>
+        <v>5.415544782208928</v>
       </c>
       <c r="D19">
-        <v>4.840607405067188</v>
+        <v>8.341532672509526</v>
       </c>
       <c r="E19">
-        <v>10.55527671069228</v>
+        <v>13.23476894553345</v>
       </c>
       <c r="F19">
-        <v>48.81340840347653</v>
+        <v>39.94539640463729</v>
       </c>
       <c r="G19">
-        <v>1.969355641645238</v>
+        <v>3.625424112149621</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.189621086607979</v>
+        <v>9.975374153824932</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>36.67343799849678</v>
+        <v>30.32528672754184</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.133437019196213</v>
+        <v>5.480973273934539</v>
       </c>
       <c r="D20">
-        <v>4.850992836477221</v>
+        <v>8.337152042595166</v>
       </c>
       <c r="E20">
-        <v>10.69984243445478</v>
+        <v>13.24579481525483</v>
       </c>
       <c r="F20">
-        <v>49.84679276665993</v>
+        <v>40.17158907014755</v>
       </c>
       <c r="G20">
-        <v>1.964445324884237</v>
+        <v>3.623905005908867</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.269719953759106</v>
+        <v>9.977665874913908</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
-        <v>37.47183342446608</v>
+        <v>30.48820912084517</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.773182895026487</v>
+        <v>5.697127250980179</v>
       </c>
       <c r="D21">
-        <v>4.889299033023771</v>
+        <v>8.323505528986626</v>
       </c>
       <c r="E21">
-        <v>11.18962856026798</v>
+        <v>13.28618260483261</v>
       </c>
       <c r="F21">
-        <v>53.26564419846467</v>
+        <v>40.93641259953594</v>
       </c>
       <c r="G21">
-        <v>1.947920270251799</v>
+        <v>3.618957493959642</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.54421284778692</v>
+        <v>9.987662937952059</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
-        <v>40.10833649392769</v>
+        <v>31.03985853224028</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.18169429665391</v>
+        <v>5.835422455774041</v>
       </c>
       <c r="D22">
-        <v>4.917050411194427</v>
+        <v>8.315384781008332</v>
       </c>
       <c r="E22">
-        <v>11.51316463039083</v>
+        <v>13.31505285444418</v>
       </c>
       <c r="F22">
-        <v>55.46470673314396</v>
+        <v>41.43904107124759</v>
       </c>
       <c r="G22">
-        <v>1.937057295329504</v>
+        <v>3.615839929080495</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.727946581520683</v>
+        <v>9.995906512116415</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>41.8007669235305</v>
+        <v>31.40297030428751</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.964480609206925</v>
+        <v>5.761897942792122</v>
       </c>
       <c r="D23">
-        <v>4.901978545496682</v>
+        <v>8.319646008059562</v>
       </c>
       <c r="E23">
-        <v>11.34014117888667</v>
+        <v>13.29941899025567</v>
       </c>
       <c r="F23">
-        <v>54.29395156935423</v>
+        <v>41.17057863238634</v>
       </c>
       <c r="G23">
-        <v>1.942863804381371</v>
+        <v>3.617493270602819</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.629462536240579</v>
+        <v>9.991350479634942</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>40.90003578719973</v>
+        <v>31.20897271189365</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.122805676967014</v>
+        <v>5.477393454533012</v>
       </c>
       <c r="D24">
-        <v>4.850410088947012</v>
+        <v>8.337388571721</v>
       </c>
       <c r="E24">
-        <v>10.69188907050797</v>
+        <v>13.24517671402121</v>
       </c>
       <c r="F24">
-        <v>49.79025387662475</v>
+        <v>40.1591472555917</v>
       </c>
       <c r="G24">
-        <v>1.964714977850784</v>
+        <v>3.623987837499461</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.265301808714924</v>
+        <v>9.977531378164608</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>37.42817064254714</v>
+        <v>30.47924468572222</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.168208702626231</v>
+        <v>5.159325451038389</v>
       </c>
       <c r="D25">
-        <v>4.805379646435764</v>
+        <v>8.359958167408955</v>
       </c>
       <c r="E25">
-        <v>10.00518796978219</v>
+        <v>13.19739254666056</v>
       </c>
       <c r="F25">
-        <v>44.88738445872449</v>
+        <v>39.08552773273382</v>
       </c>
       <c r="G25">
-        <v>1.988276721341882</v>
+        <v>3.631495555123405</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.889191731592996</v>
+        <v>9.969978108515274</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>33.52978917914111</v>
+        <v>29.70702748933676</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_206/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_206/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.917497143191863</v>
+        <v>7.419916800493313</v>
       </c>
       <c r="D2">
-        <v>8.37953447089845</v>
+        <v>4.780316404369215</v>
       </c>
       <c r="E2">
-        <v>13.1715048820428</v>
+        <v>9.509247275504203</v>
       </c>
       <c r="F2">
-        <v>38.31587132213537</v>
+        <v>41.26537917310201</v>
       </c>
       <c r="G2">
-        <v>3.637461528759324</v>
+        <v>2.005860463104252</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.970737365885174</v>
+        <v>6.625206055635685</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>29.15539173534993</v>
+        <v>30.842357152465</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750038287576572</v>
+        <v>6.882246722338095</v>
       </c>
       <c r="D3">
-        <v>8.394650609564671</v>
+        <v>4.767941492040245</v>
       </c>
       <c r="E3">
-        <v>13.15978120347579</v>
+        <v>9.179329946718363</v>
       </c>
       <c r="F3">
-        <v>37.81025459191146</v>
+        <v>38.73022454327982</v>
       </c>
       <c r="G3">
-        <v>3.641781056497854</v>
+        <v>2.018023020747356</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.975187776357476</v>
+        <v>6.454006984632592</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>28.79417684634628</v>
+        <v>28.97036605393614</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.64591576783808</v>
+        <v>6.536407703214153</v>
       </c>
       <c r="D4">
-        <v>8.404845278276248</v>
+        <v>4.762487790653381</v>
       </c>
       <c r="E4">
-        <v>13.15545742062762</v>
+        <v>8.980024321066439</v>
       </c>
       <c r="F4">
-        <v>37.50866947976713</v>
+        <v>37.13487151948776</v>
       </c>
       <c r="G4">
-        <v>3.644570570457484</v>
+        <v>2.025640147927581</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.979858037231841</v>
+        <v>6.352636191121126</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>28.57929408398432</v>
+        <v>27.79376843338404</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.603233074408617</v>
+        <v>6.391438969529446</v>
       </c>
       <c r="D5">
-        <v>8.40922952907969</v>
+        <v>4.760786710823245</v>
       </c>
       <c r="E5">
-        <v>13.15441859798503</v>
+        <v>8.899673335319907</v>
       </c>
       <c r="F5">
-        <v>37.3881454899031</v>
+        <v>36.47533572515515</v>
       </c>
       <c r="G5">
-        <v>3.645741988542309</v>
+        <v>2.028785446003734</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.982247850571035</v>
+        <v>6.312265788661413</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>28.49356298653657</v>
+        <v>27.3077143425511</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.596132744288094</v>
+        <v>6.367120806816663</v>
       </c>
       <c r="D6">
-        <v>8.409971417741623</v>
+        <v>4.760535230614535</v>
       </c>
       <c r="E6">
-        <v>13.1542897787859</v>
+        <v>8.886385066009444</v>
       </c>
       <c r="F6">
-        <v>37.36828010956902</v>
+        <v>36.36526460933413</v>
       </c>
       <c r="G6">
-        <v>3.645938599671039</v>
+        <v>2.029310314623332</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.982674048260407</v>
+        <v>6.305618985443124</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>28.47944106643438</v>
+        <v>27.22661795448154</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.645341050300152</v>
+        <v>6.534469058205648</v>
       </c>
       <c r="D7">
-        <v>8.404903474949895</v>
+        <v>4.762462761330182</v>
       </c>
       <c r="E7">
-        <v>13.15544048259847</v>
+        <v>8.97893709767477</v>
       </c>
       <c r="F7">
-        <v>37.50703424964986</v>
+        <v>37.12601435316881</v>
       </c>
       <c r="G7">
-        <v>3.644586228050326</v>
+        <v>2.025682394793041</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.979888297599556</v>
+        <v>6.352087941853305</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>28.57813032523592</v>
+        <v>27.78723955156479</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.860071148188108</v>
+        <v>7.237733906893179</v>
       </c>
       <c r="D8">
-        <v>8.384557071697326</v>
+        <v>4.775593320832011</v>
       </c>
       <c r="E8">
-        <v>13.16686625684063</v>
+        <v>9.394838744755312</v>
       </c>
       <c r="F8">
-        <v>38.13978326231944</v>
+        <v>40.39944576938562</v>
       </c>
       <c r="G8">
-        <v>3.638922489429729</v>
+        <v>2.010025485171375</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.971869385334447</v>
+        <v>6.565396303841623</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>29.02947253667056</v>
+        <v>30.20265043434651</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.267797834203673</v>
+        <v>8.496502102439745</v>
       </c>
       <c r="D9">
-        <v>8.351896488627711</v>
+        <v>4.819228356888988</v>
       </c>
       <c r="E9">
-        <v>13.21204874189638</v>
+        <v>10.23497602653494</v>
       </c>
       <c r="F9">
-        <v>39.44433865126174</v>
+        <v>46.50576077762685</v>
       </c>
       <c r="G9">
-        <v>3.628898923999232</v>
+        <v>1.980317961362733</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.971540063062042</v>
+        <v>7.013805013951053</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
-        <v>29.96479493695725</v>
+        <v>34.86531709445581</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.555577424452109</v>
+        <v>9.354655558205792</v>
       </c>
       <c r="D10">
-        <v>8.332303123471856</v>
+        <v>4.863519940609526</v>
       </c>
       <c r="E10">
-        <v>13.25905958193109</v>
+        <v>10.86675273434242</v>
       </c>
       <c r="F10">
-        <v>40.43258108286911</v>
+        <v>51.02536784613677</v>
       </c>
       <c r="G10">
-        <v>3.622185812989481</v>
+        <v>1.95879770465135</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.980703773332708</v>
+        <v>7.362737833964032</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>30.67632919590986</v>
+        <v>38.38151826727236</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.683289480366905</v>
+        <v>9.732307392773578</v>
       </c>
       <c r="D11">
-        <v>8.324343274162553</v>
+        <v>4.886662326486491</v>
       </c>
       <c r="E11">
-        <v>13.28342094219014</v>
+        <v>11.15770093574518</v>
       </c>
       <c r="F11">
-        <v>40.88667420338377</v>
+        <v>53.04626532141459</v>
       </c>
       <c r="G11">
-        <v>3.619271314870455</v>
+        <v>1.948993791742069</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.986915426135772</v>
+        <v>7.52618114605363</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
-        <v>31.00394998365633</v>
+        <v>39.93936365335504</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.731144146241925</v>
+        <v>9.873652498148694</v>
       </c>
       <c r="D12">
-        <v>8.321465978278923</v>
+        <v>4.895888649646653</v>
       </c>
       <c r="E12">
-        <v>13.29307089710891</v>
+        <v>11.26845561196099</v>
       </c>
       <c r="F12">
-        <v>41.05911770167053</v>
+        <v>53.80538298888751</v>
       </c>
       <c r="G12">
-        <v>3.618187556162777</v>
+        <v>1.945271275990244</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.989561056539859</v>
+        <v>7.588810223440305</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>31.12846399086969</v>
+        <v>40.5239522848907</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.720861031978093</v>
+        <v>9.843282361506859</v>
       </c>
       <c r="D13">
-        <v>8.322079568072784</v>
+        <v>4.893880449221872</v>
       </c>
       <c r="E13">
-        <v>13.29097376639992</v>
+        <v>11.24457539524079</v>
       </c>
       <c r="F13">
-        <v>41.02195977649676</v>
+        <v>53.64215257220675</v>
       </c>
       <c r="G13">
-        <v>3.618420080178632</v>
+        <v>1.946073571084319</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.988978231202863</v>
+        <v>7.575288007499374</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>31.10162943268654</v>
+        <v>40.39827584306325</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.687236925558879</v>
+        <v>9.743968234584086</v>
       </c>
       <c r="D14">
-        <v>8.32410381398088</v>
+        <v>4.88741190517655</v>
       </c>
       <c r="E14">
-        <v>13.28420635488916</v>
+        <v>11.16680066995423</v>
       </c>
       <c r="F14">
-        <v>40.90085237831989</v>
+        <v>53.10883654391908</v>
       </c>
       <c r="G14">
-        <v>3.619181755378346</v>
+        <v>1.94868778842881</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.987127206179927</v>
+        <v>7.531318503264226</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>31.01418544175401</v>
+        <v>39.98756071898966</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.666573847298719</v>
+        <v>9.682924200306402</v>
       </c>
       <c r="D15">
-        <v>8.325361550290696</v>
+        <v>4.88351104124814</v>
       </c>
       <c r="E15">
-        <v>13.28011634602458</v>
+        <v>11.11923942445178</v>
       </c>
       <c r="F15">
-        <v>40.82672936358039</v>
+        <v>52.78139024121674</v>
       </c>
       <c r="G15">
-        <v>3.619650890739402</v>
+        <v>1.950287513647286</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.986031596312477</v>
+        <v>7.504483944347992</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>30.96067881572731</v>
+        <v>39.73531325442521</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.547162608248234</v>
+        <v>9.3297327292162</v>
       </c>
       <c r="D16">
-        <v>8.332842487610495</v>
+        <v>4.86207043634166</v>
       </c>
       <c r="E16">
-        <v>13.25752713912069</v>
+        <v>10.84781508857485</v>
       </c>
       <c r="F16">
-        <v>40.402982238279</v>
+        <v>50.89238984834957</v>
       </c>
       <c r="G16">
-        <v>3.62237907425135</v>
+        <v>1.959437476975281</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.980338910971588</v>
+        <v>7.352155846829361</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>30.65498779838054</v>
+        <v>38.27892393056676</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.473052887979496</v>
+        <v>9.109912801520338</v>
       </c>
       <c r="D17">
-        <v>8.337675848305945</v>
+        <v>4.849705756379342</v>
       </c>
       <c r="E17">
-        <v>13.24442954544489</v>
+        <v>10.68225234194598</v>
       </c>
       <c r="F17">
-        <v>40.14407159247448</v>
+        <v>49.72170052573935</v>
       </c>
       <c r="G17">
-        <v>3.624088314602401</v>
+        <v>1.965041776125986</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.977369701394315</v>
+        <v>7.259950308084901</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>30.46838297396374</v>
+        <v>37.37522662739559</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.430128156078403</v>
+        <v>8.982269051776168</v>
       </c>
       <c r="D18">
-        <v>8.340545605306687</v>
+        <v>4.842873556241742</v>
       </c>
       <c r="E18">
-        <v>13.23717647786342</v>
+        <v>10.58735313429318</v>
       </c>
       <c r="F18">
-        <v>39.99558975782951</v>
+        <v>49.04375770153575</v>
       </c>
       <c r="G18">
-        <v>3.625084546993187</v>
+        <v>1.968264423756097</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.975854225933524</v>
+        <v>7.207355039624861</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>30.36143056204226</v>
+        <v>36.85147230653772</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.415544782208928</v>
+        <v>8.938838708019563</v>
       </c>
       <c r="D19">
-        <v>8.341532672509526</v>
+        <v>4.840607405067143</v>
       </c>
       <c r="E19">
-        <v>13.23476894553345</v>
+        <v>10.55527671069228</v>
       </c>
       <c r="F19">
-        <v>39.94539640463729</v>
+        <v>48.81340840347645</v>
       </c>
       <c r="G19">
-        <v>3.625424112149621</v>
+        <v>1.969355641645239</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.975374153824932</v>
+        <v>7.189621086607985</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>30.32528672754184</v>
+        <v>36.67343799849669</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.480973273934539</v>
+        <v>9.133437019196187</v>
       </c>
       <c r="D20">
-        <v>8.337152042595166</v>
+        <v>4.850992836477108</v>
       </c>
       <c r="E20">
-        <v>13.24579481525483</v>
+        <v>10.69984243445478</v>
       </c>
       <c r="F20">
-        <v>40.17158907014755</v>
+        <v>49.84679276665998</v>
       </c>
       <c r="G20">
-        <v>3.623905005908867</v>
+        <v>1.964445324884242</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.977665874913908</v>
+        <v>7.269719953759089</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>30.48820912084517</v>
+        <v>37.47183342446611</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.697127250980179</v>
+        <v>9.773182895026547</v>
       </c>
       <c r="D21">
-        <v>8.323505528986626</v>
+        <v>4.889299033023676</v>
       </c>
       <c r="E21">
-        <v>13.28618260483261</v>
+        <v>11.18962856026797</v>
       </c>
       <c r="F21">
-        <v>40.93641259953594</v>
+        <v>53.26564419846464</v>
       </c>
       <c r="G21">
-        <v>3.618957493959642</v>
+        <v>1.947920270251791</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.987662937952059</v>
+        <v>7.544212847786917</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>31.03985853224028</v>
+        <v>40.10833649392767</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.835422455774041</v>
+        <v>10.18169429665391</v>
       </c>
       <c r="D22">
-        <v>8.315384781008332</v>
+        <v>4.917050411194414</v>
       </c>
       <c r="E22">
-        <v>13.31505285444418</v>
+        <v>11.51316463039082</v>
       </c>
       <c r="F22">
-        <v>41.43904107124759</v>
+        <v>55.464706733144</v>
       </c>
       <c r="G22">
-        <v>3.615839929080495</v>
+        <v>1.937057295329507</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.995906512116415</v>
+        <v>7.727946581520697</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>31.40297030428751</v>
+        <v>41.80076692353055</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.761897942792122</v>
+        <v>9.964480609206925</v>
       </c>
       <c r="D23">
-        <v>8.319646008059562</v>
+        <v>4.901978545496659</v>
       </c>
       <c r="E23">
-        <v>13.29941899025567</v>
+        <v>11.34014117888669</v>
       </c>
       <c r="F23">
-        <v>41.17057863238634</v>
+        <v>54.29395156935428</v>
       </c>
       <c r="G23">
-        <v>3.617493270602819</v>
+        <v>1.942863804381244</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.991350479634942</v>
+        <v>7.62946253624057</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>31.20897271189365</v>
+        <v>40.90003578719976</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.477393454533012</v>
+        <v>9.122805676967069</v>
       </c>
       <c r="D24">
-        <v>8.337388571721</v>
+        <v>4.850410088947011</v>
       </c>
       <c r="E24">
-        <v>13.24517671402121</v>
+        <v>10.69188907050792</v>
       </c>
       <c r="F24">
-        <v>40.1591472555917</v>
+        <v>49.7902538766247</v>
       </c>
       <c r="G24">
-        <v>3.623987837499461</v>
+        <v>1.964714977850649</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.977531378164608</v>
+        <v>7.265301808714886</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>30.47924468572222</v>
+        <v>37.42817064254709</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.159325451038389</v>
+        <v>8.168208702626181</v>
       </c>
       <c r="D25">
-        <v>8.359958167408955</v>
+        <v>4.805379646435714</v>
       </c>
       <c r="E25">
-        <v>13.19739254666056</v>
+        <v>10.00518796978214</v>
       </c>
       <c r="F25">
-        <v>39.08552773273382</v>
+        <v>44.88738445872441</v>
       </c>
       <c r="G25">
-        <v>3.631495555123405</v>
+        <v>1.988276721342157</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.969978108515274</v>
+        <v>6.889191731592994</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>29.70702748933676</v>
+        <v>33.52978917914098</v>
       </c>
     </row>
   </sheetData>
